--- a/data/trans_orig/P79A9_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A9_2023-Edad-trans_orig.xlsx
@@ -924,7 +924,7 @@
         <v>2803</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>917</v>
+        <v>370</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>4288</v>
@@ -933,7 +933,7 @@
         <v>0.6537359789174063</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2138449174752723</v>
+        <v>0.08630309501624166</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3366</v>
+        <v>3371</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3462640210825935</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7848721908805566</v>
+        <v>0.7862110513451254</v>
       </c>
     </row>
     <row r="9">
@@ -1253,16 +1253,16 @@
         <v>3408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>942</v>
+        <v>1035</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>4893</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.69655190417556</v>
+        <v>0.6965519041755601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1924279833938676</v>
+        <v>0.2115951577603637</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1274,16 +1274,16 @@
         <v>4538</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>6023</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.753466464290401</v>
+        <v>0.7534664642904011</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3011347511491008</v>
+        <v>0.3018938250321394</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3721</v>
+        <v>3862</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3034480958244399</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7604087175512233</v>
+        <v>0.7891961357004843</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1340,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.246533535709599</v>
+        <v>0.2465335357095991</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6978395473063803</v>
+        <v>0.6981061749678605</v>
       </c>
     </row>
     <row r="15">
